--- a/Modelo.xlsx
+++ b/Modelo.xlsx
@@ -356,9 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +723,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,19 +742,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:12">
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="6:12">
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="6:12" ht="15" customHeight="1">
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="6:12" ht="18" customHeight="1">
       <c r="H5" s="1" t="s">
@@ -762,49 +762,49 @@
       </c>
     </row>
     <row r="6" spans="6:12" ht="22.5" customHeight="1">
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="6:12" ht="27" customHeight="1">
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="6:12">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="25" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="6:12" ht="42" customHeight="1">
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="6:12">
-      <c r="H10" s="13"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="6:12">
       <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -812,10 +812,10 @@
       </c>
     </row>
     <row r="12" spans="6:12">
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -823,106 +823,106 @@
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="K13" s="12" t="s">
+      <c r="H13" s="21"/>
+      <c r="K13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="6:12" ht="20.25" customHeight="1">
-      <c r="G14" s="25"/>
-      <c r="H14" s="23"/>
-      <c r="K14" s="13"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="22"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="6:12" ht="23.25" customHeight="1">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="6:12" ht="29.25" customHeight="1">
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="45">
-      <c r="G17" s="15"/>
-      <c r="H17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="11" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1">
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="10" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1">
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="K19" s="12" t="s">
+      <c r="H19" s="7"/>
+      <c r="K19" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Modelo.xlsx
+++ b/Modelo.xlsx
@@ -91,6 +91,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="M15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NaoInformado
+Ativa
+Passiva</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K18" authorId="0">
       <text>
         <r>
@@ -128,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>ClienteCorretora</t>
   </si>
@@ -137,15 +153,6 @@
   </si>
   <si>
     <t>TipoDeMovimentacao</t>
-  </si>
-  <si>
-    <t>0====1</t>
-  </si>
-  <si>
-    <t>1=================0</t>
-  </si>
-  <si>
-    <t>0========1</t>
   </si>
   <si>
     <t>Carteira</t>
@@ -226,6 +233,15 @@
   </si>
   <si>
     <t>TipoDeInvestimento</t>
+  </si>
+  <si>
+    <t>1=================01</t>
+  </si>
+  <si>
+    <t>10========1</t>
+  </si>
+  <si>
+    <t>10====1</t>
   </si>
 </sst>
 </file>
@@ -274,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +403,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -423,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="135"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +748,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -741,189 +766,194 @@
     <col min="13" max="13" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:12">
+    <row r="2" spans="6:13">
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="6:12">
+    <row r="3" spans="6:13">
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="6:12" ht="15" customHeight="1">
+    <row r="4" spans="6:13" ht="15" customHeight="1">
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="6:12" ht="18" customHeight="1">
+    <row r="5" spans="6:13" ht="18" customHeight="1">
       <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="6:12" ht="22.5" customHeight="1">
-      <c r="H6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:13" ht="22.5" customHeight="1">
+      <c r="H6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="6:13" ht="27" customHeight="1">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="6:13">
+      <c r="F8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="6:13" ht="42" customHeight="1">
+      <c r="H9" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13">
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="6:13">
+      <c r="F11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13">
+      <c r="H12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" ht="24" customHeight="1">
+      <c r="F13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="K13" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" ht="20.25" customHeight="1">
+      <c r="G14" s="25"/>
+      <c r="H14" s="23"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="6:13" ht="23.25" customHeight="1">
+      <c r="F15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" ht="29.25" customHeight="1">
+      <c r="G16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="6:12" ht="27" customHeight="1">
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="6:12">
-      <c r="F8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="6:12" ht="42" customHeight="1">
-      <c r="H9" s="11" t="s">
+    <row r="17" spans="2:13" ht="45">
+      <c r="G17" s="15"/>
+      <c r="H17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="6:12">
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="6:12">
-      <c r="F11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="6:12">
-      <c r="H12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="6:12" ht="24" customHeight="1">
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="K13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="6:12" ht="20.25" customHeight="1">
-      <c r="G14" s="24"/>
-      <c r="H14" s="22"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="6:12" ht="23.25" customHeight="1">
-      <c r="F15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="6:12" ht="29.25" customHeight="1">
-      <c r="G16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="45">
-      <c r="G17" s="14"/>
-      <c r="H17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1">
       <c r="E18" s="4"/>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="19"/>
       <c r="K18" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1">
       <c r="G19" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="K19" s="11" t="s">
-        <v>10</v>
+      <c r="K19" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B20" s="25" t="s">
-        <v>26</v>
+      <c r="B20" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:13">
       <c r="K21" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="28.5" customHeight="1"/>

--- a/Modelo.xlsx
+++ b/Modelo.xlsx
@@ -406,6 +406,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -447,9 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="135"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +748,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,12 +787,12 @@
       </c>
     </row>
     <row r="6" spans="6:13" ht="22.5" customHeight="1">
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="6:13" ht="27" customHeight="1">
-      <c r="H7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="6:13">
       <c r="F8" s="11" t="s">
@@ -812,15 +812,15 @@
       </c>
     </row>
     <row r="9" spans="6:13" ht="42" customHeight="1">
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="6:13">
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="6:13">
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -832,12 +832,12 @@
       <c r="I11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="6:13">
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -845,21 +845,21 @@
       </c>
     </row>
     <row r="13" spans="6:13" ht="24" customHeight="1">
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="K13" s="12" t="s">
+      <c r="H13" s="23"/>
+      <c r="K13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="6:13" ht="20.25" customHeight="1">
-      <c r="G14" s="25"/>
-      <c r="H14" s="23"/>
-      <c r="K14" s="13"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="6:13" ht="23.25" customHeight="1">
       <c r="F15" s="9" t="s">
@@ -868,42 +868,42 @@
       <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="6:13" ht="29.25" customHeight="1">
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="45">
-      <c r="G17" s="15"/>
-      <c r="H17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="10" t="s">
         <v>12</v>
       </c>
@@ -916,10 +916,10 @@
       <c r="H18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="9" t="s">
         <v>28</v>
       </c>
@@ -929,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
       <c r="F20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="2:13">
       <c r="K21" s="9" t="s">

--- a/Modelo.xlsx
+++ b/Modelo.xlsx
@@ -257,13 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -285,6 +278,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,62 +395,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="135"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="135"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="135"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="135"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,40 +788,40 @@
       </c>
     </row>
     <row r="6" spans="6:13" ht="22.5" customHeight="1">
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="6:13" ht="27" customHeight="1">
-      <c r="H7" s="14"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="6:13">
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="26" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="26" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="6:13" ht="42" customHeight="1">
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="6:13">
-      <c r="H10" s="14"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="6:13">
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -832,12 +833,12 @@
       <c r="I11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="6:13">
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -845,21 +846,21 @@
       </c>
     </row>
     <row r="13" spans="6:13" ht="24" customHeight="1">
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="K13" s="13" t="s">
+      <c r="H13" s="22"/>
+      <c r="K13" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="6:13" ht="20.25" customHeight="1">
-      <c r="G14" s="26"/>
-      <c r="H14" s="24"/>
-      <c r="K14" s="14"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="23"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="6:13" ht="23.25" customHeight="1">
       <c r="F15" s="9" t="s">
@@ -871,39 +872,39 @@
       <c r="H15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="6:13" ht="29.25" customHeight="1">
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="45">
-      <c r="G17" s="16"/>
-      <c r="H17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="18"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="10" t="s">
         <v>12</v>
       </c>
@@ -916,10 +917,10 @@
       <c r="H18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="9" t="s">
         <v>28</v>
       </c>
@@ -929,27 +930,27 @@
         <v>7</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="14"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:13">
       <c r="K21" s="9" t="s">

--- a/Modelo.xlsx
+++ b/Modelo.xlsx
@@ -54,7 +54,7 @@
           </rPr>
           <t>NaoInformado
 Daytrade
-SwingTrande</t>
+SwingTrade</t>
         </r>
       </text>
     </comment>
@@ -144,12 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ClienteCorretora</t>
-  </si>
-  <si>
-    <t>TipoDeOperação</t>
   </si>
   <si>
     <t>TipoDeMovimentacao</t>
@@ -242,6 +239,12 @@
   </si>
   <si>
     <t>10====1</t>
+  </si>
+  <si>
+    <t>TipoDeGestão</t>
+  </si>
+  <si>
+    <t>TipoDeOperacão</t>
   </si>
 </sst>
 </file>
@@ -407,6 +410,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -448,9 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="135"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +752,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,177 +787,177 @@
     </row>
     <row r="5" spans="6:13" ht="18" customHeight="1">
       <c r="H5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="6:13" ht="22.5" customHeight="1">
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="6:13" ht="27" customHeight="1">
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="6:13">
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="6:13" ht="27" customHeight="1">
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="6:13">
-      <c r="F8" s="26" t="s">
+      <c r="J8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9" spans="6:13" ht="42" customHeight="1">
-      <c r="H9" s="12" t="s">
-        <v>9</v>
+      <c r="H9" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="6:13">
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="6:13">
       <c r="F11" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13">
+      <c r="H12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="6:13">
-      <c r="H12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="6:13" ht="24" customHeight="1">
       <c r="F13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="K13" s="12" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="K13" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="6:13" ht="20.25" customHeight="1">
-      <c r="G14" s="25"/>
-      <c r="H14" s="23"/>
-      <c r="K14" s="13"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="6:13" ht="23.25" customHeight="1">
       <c r="F15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" ht="29.25" customHeight="1">
+      <c r="G16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="K16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="45">
+      <c r="G17" s="16"/>
+      <c r="H17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="6:13" ht="29.25" customHeight="1">
-      <c r="G16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="45">
-      <c r="G17" s="15"/>
-      <c r="H17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="22.5" customHeight="1">
       <c r="E18" s="4"/>
       <c r="F18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="20"/>
       <c r="K18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1">
       <c r="G19" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="K19" s="12" t="s">
-        <v>7</v>
+      <c r="K19" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="33.75" customHeight="1">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="2:13">
       <c r="K21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="28.5" customHeight="1"/>

--- a/Modelo.xlsx
+++ b/Modelo.xlsx
@@ -752,7 +752,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -866,7 +866,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="6:13" ht="23.25" customHeight="1">
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="20"/>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -956,7 +956,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="12" t="s">
         <v>14</v>
       </c>
     </row>
